--- a/Bandas Salariales.xlsx
+++ b/Bandas Salariales.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$36</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="308">
   <si>
     <t>Categoria</t>
   </si>
@@ -73,7 +76,7 @@
     <t>L1</t>
   </si>
   <si>
-    <t>SOCIAL MEDIA OPTIMIZATION</t>
+    <t>Social Media Optimization</t>
   </si>
   <si>
     <t>+1</t>
@@ -100,7 +103,7 @@
     <t>TWW-SOME-OPT-AB</t>
   </si>
   <si>
-    <t>SOCIAL MEDIA MANAGER</t>
+    <t>Social Media Manager</t>
   </si>
   <si>
     <t>TWW-SOME-MAN</t>
@@ -124,7 +127,7 @@
     <t>TWW-SOME-MAN-AB</t>
   </si>
   <si>
-    <t>DIGITAL GRAPHIC DESIGNER MID</t>
+    <t>Digital Graphic Designer</t>
   </si>
   <si>
     <t>TWW-DGD-MID</t>
@@ -148,7 +151,7 @@
     <t>TWW-DGD-MID-AB</t>
   </si>
   <si>
-    <t>MOTION DESIGNER JR</t>
+    <t>Motion Designer</t>
   </si>
   <si>
     <t>TWW-MD-JR</t>
@@ -178,12 +181,90 @@
     <t>L2</t>
   </si>
   <si>
-    <t>UX/UI DESIGNER MID</t>
+    <t>Quality Assurance Lead</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-CL</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-BL</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-AL</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-CB</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-BB</t>
+  </si>
+  <si>
+    <t>TWW-QA-MID-AB</t>
+  </si>
+  <si>
+    <t>Digital Content Generator</t>
   </si>
   <si>
     <t>2-3</t>
   </si>
   <si>
+    <t>TWW-DCG</t>
+  </si>
+  <si>
+    <t>TWW-DCG-CL</t>
+  </si>
+  <si>
+    <t>TWW-DCG-BL</t>
+  </si>
+  <si>
+    <t>TWW-DCG-AL</t>
+  </si>
+  <si>
+    <t>TWW-DCG-CB</t>
+  </si>
+  <si>
+    <t>TWW-DCG-BB</t>
+  </si>
+  <si>
+    <t>TWW-DCG-AB</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-CL</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-BL</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-AL</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-CB</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-BB</t>
+  </si>
+  <si>
+    <t>TWW-BD-JR-AB</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>UX/UI Designer</t>
+  </si>
+  <si>
     <t>TWW-UXUID-MID</t>
   </si>
   <si>
@@ -205,85 +286,7 @@
     <t>TWW-UXUID-MID-AB</t>
   </si>
   <si>
-    <t>QUALITY ASSURANCE MID</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-CL</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-BL</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-AL</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-CB</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-BB</t>
-  </si>
-  <si>
-    <t>TWW-QA-MID-AB</t>
-  </si>
-  <si>
-    <t>DIGITAL CONTENT GENERATOR</t>
-  </si>
-  <si>
-    <t>TWW-DCG</t>
-  </si>
-  <si>
-    <t>TWW-DCG-CL</t>
-  </si>
-  <si>
-    <t>TWW-DCG-BL</t>
-  </si>
-  <si>
-    <t>TWW-DCG-AL</t>
-  </si>
-  <si>
-    <t>TWW-DCG-CB</t>
-  </si>
-  <si>
-    <t>TWW-DCG-BB</t>
-  </si>
-  <si>
-    <t>TWW-DCG-AB</t>
-  </si>
-  <si>
-    <t>BACKEND DEVELOPER JR</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-CL</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-BL</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-AL</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-CB</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-BB</t>
-  </si>
-  <si>
-    <t>TWW-BD-JR-AB</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>WEB DEVELOPER MID</t>
+    <t>Web Developer</t>
   </si>
   <si>
     <t>-4</t>
@@ -310,7 +313,7 @@
     <t>TWW-WEBD-MID-AB</t>
   </si>
   <si>
-    <t>FRONTEND DEVELOPER MID</t>
+    <t>FrontEnd Developer</t>
   </si>
   <si>
     <t>-3</t>
@@ -337,40 +340,13 @@
     <t>TWW-FROD-MID-AB</t>
   </si>
   <si>
-    <t>BACKEND DEVELOPER MID</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-CL</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-BL</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-AL</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-CB</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-BB</t>
-  </si>
-  <si>
-    <t>TWW-BD-MID-AB</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
     <t>L4</t>
   </si>
   <si>
-    <t>FULLSTACK DEVELOPER MID</t>
+    <t>Fullstack Developer</t>
   </si>
   <si>
     <t>-5</t>
@@ -397,7 +373,7 @@
     <t>TWW-FULD-MID-AB</t>
   </si>
   <si>
-    <t>IT COORDINATOR</t>
+    <t>Coordinador de IT</t>
   </si>
   <si>
     <t>TWW-ITC</t>
@@ -421,7 +397,7 @@
     <t>TWW-ITC-AB</t>
   </si>
   <si>
-    <t>DIGITAL GRAPHIC DESIGNER SR</t>
+    <t>Digital Strategist</t>
   </si>
   <si>
     <t>TWW-DGD-SR</t>
@@ -448,7 +424,7 @@
     <t>L5</t>
   </si>
   <si>
-    <t>ANDROID DEVELOPER MID</t>
+    <t>Android Developer</t>
   </si>
   <si>
     <t>TWW-AND-MID</t>
@@ -472,7 +448,10 @@
     <t>TWW-AND-MID-AB</t>
   </si>
   <si>
-    <t>FLUTTER DEVELOPER MID</t>
+    <t>Mobile Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Flutter Developer</t>
   </si>
   <si>
     <t>TWW-FLUD-MID</t>
@@ -496,7 +475,7 @@
     <t>TWW-FLUD-MID-AB</t>
   </si>
   <si>
-    <t>PRODUCT OWNER MID</t>
+    <t>Product Owner</t>
   </si>
   <si>
     <t>TWW-PO-MID</t>
@@ -520,7 +499,7 @@
     <t>TWW-PO-MID-AB</t>
   </si>
   <si>
-    <t>SOCIAL MEDIA DIRECTOR LEAD</t>
+    <t>Social Media Director</t>
   </si>
   <si>
     <t>TWW-SOMEDI-LEAD</t>
@@ -544,34 +523,7 @@
     <t>TWW-SOMEDI-LEAD-AB</t>
   </si>
   <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>BACKEND DEVELOPER SR</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-CL</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-BL</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-AL</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-CB</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-BB</t>
-  </si>
-  <si>
-    <t>TWW-BD-SR-AB</t>
-  </si>
-  <si>
-    <t>WEB DEVELOPER SR</t>
+    <t>Web Lead</t>
   </si>
   <si>
     <t>-10</t>
@@ -598,7 +550,7 @@
     <t>TWW-WEBD-SR-AB</t>
   </si>
   <si>
-    <t>CLOUD ENGINEER Y DEVOPS</t>
+    <t>Cloud Engineer y DevOps</t>
   </si>
   <si>
     <t>TWW-CED</t>
@@ -622,31 +574,7 @@
     <t>TWW-CED-AB</t>
   </si>
   <si>
-    <t>PRODUCT OWNER SR</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-CL</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-BL</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-AL</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-CB</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-BB</t>
-  </si>
-  <si>
-    <t>TWW-PO-SR-AB</t>
-  </si>
-  <si>
-    <t>SENIOR MAGENTO DEVELOPER</t>
+    <t>Backend Magento Developer</t>
   </si>
   <si>
     <t>TWW-MAGD-SR</t>
@@ -670,7 +598,7 @@
     <t>TWW-MAGD-SR-AB</t>
   </si>
   <si>
-    <t>IOS DEVELOPER MID</t>
+    <t>iOS Developer</t>
   </si>
   <si>
     <t>TWW-IOSD-MID</t>
@@ -694,7 +622,7 @@
     <t>TWW-IOSD-MID-AB</t>
   </si>
   <si>
-    <t>SOLUTIONS ARQUITECT</t>
+    <t>Arquitecto de Soluciones</t>
   </si>
   <si>
     <t>TWW-SOLARQ</t>
@@ -724,55 +652,7 @@
     <t>L6</t>
   </si>
   <si>
-    <t>QUALITY ASSURANCE SR</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-CL</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-BL</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-AL</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-CB</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-BB</t>
-  </si>
-  <si>
-    <t>TWW-QA-SR-AB</t>
-  </si>
-  <si>
-    <t>ANDROID DEVELOPER SR</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-CL</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-BL</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-AL</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-CB</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-BB</t>
-  </si>
-  <si>
-    <t>TWW-AND-SR-AB</t>
-  </si>
-  <si>
-    <t>FLUTTER DEVELOPER SR</t>
+    <t>Flutter Developer Lead</t>
   </si>
   <si>
     <t>TWW-FLUD-SR</t>
@@ -796,7 +676,7 @@
     <t>TWW-FLUD-SR-AB</t>
   </si>
   <si>
-    <t>FULLSTACK DEVELOPER SR</t>
+    <t>Soporte Fullstack</t>
   </si>
   <si>
     <t>TWW-FULD-SR</t>
@@ -820,7 +700,7 @@
     <t>TWW-FULD-SR-AB</t>
   </si>
   <si>
-    <t>SCRUM MASTER SR</t>
+    <t>Scrum Master</t>
   </si>
   <si>
     <t>TWW-SCMAS-SR</t>
@@ -844,7 +724,7 @@
     <t>TWW-SCMAS-SR-AB</t>
   </si>
   <si>
-    <t>PLO</t>
+    <t>Product Line Owner</t>
   </si>
   <si>
     <t>TWW-PLO</t>
@@ -868,7 +748,7 @@
     <t>TWW-PLO-AB</t>
   </si>
   <si>
-    <t>BACKEND DEVELOPER LEAD</t>
+    <t>Backend Lead</t>
   </si>
   <si>
     <t>TWW-BD-LEAD</t>
@@ -892,7 +772,7 @@
     <t>TWW-BD-LEAD-AB</t>
   </si>
   <si>
-    <t>LEAD DESIGNER</t>
+    <t>Lead Designer</t>
   </si>
   <si>
     <t>TWW-UXUID-LEAD</t>
@@ -916,7 +796,7 @@
     <t>TWW-UXUID-LEAD-AB</t>
   </si>
   <si>
-    <t>IOS DEVELOPER LEAD</t>
+    <t>Lead IOS</t>
   </si>
   <si>
     <t>TWW-IOSD-LEAD</t>
@@ -940,7 +820,7 @@
     <t>TWW-IOSD-LEAD-AB</t>
   </si>
   <si>
-    <t>IOS DEVELOPER SR</t>
+    <t>Senior iOS Developer</t>
   </si>
   <si>
     <t>TWW-IOSD-SR</t>
@@ -964,7 +844,7 @@
     <t>TWW-IOSD-SR-AB</t>
   </si>
   <si>
-    <t>ANDROID DEVELOPER LEAD</t>
+    <t>Android Lead</t>
   </si>
   <si>
     <t>TWW-AND-LEAD</t>
@@ -991,7 +871,7 @@
     <t>L7</t>
   </si>
   <si>
-    <t>COO / CPO</t>
+    <t>Chief Product Owner</t>
   </si>
   <si>
     <t>TWW-COO/CPO</t>
@@ -1015,7 +895,7 @@
     <t>TWW-COO/CPO-AB</t>
   </si>
   <si>
-    <t>MOBILE MANAGER</t>
+    <t>Mobile Manager</t>
   </si>
   <si>
     <t>TWW-MOB-MAN</t>
@@ -1039,7 +919,7 @@
     <t>TWW-MOB-MAN-AB</t>
   </si>
   <si>
-    <t>CTO</t>
+    <t>Chief Technology Officer</t>
   </si>
   <si>
     <t>TWW-CTO</t>
@@ -1068,9 +948,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1088,6 +968,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1095,8 +983,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,14 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,48 +1044,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,24 +1060,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,16 +1083,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,19 +1121,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1193,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,31 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,109 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,36 +1325,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1504,9 +1354,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,168 +1425,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,6 +1584,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,10 +1910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2110,7 +1993,7 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2163,7 +2046,7 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2216,7 +2099,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2269,7 +2152,7 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2322,50 +2205,50 @@
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1181.43459915612</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1476.79324894515</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1772.15189873418</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1">
-        <v>9600</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1417.72151898734</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1772.15189873418</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2126.58227848101</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2375,11 +2258,11 @@
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>8000</v>
@@ -2428,11 +2311,11 @@
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E8" s="1">
         <v>8000</v>
@@ -2453,25 +2336,25 @@
         <v>1772.15189873418</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2479,52 +2362,52 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" s="1">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="F9" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="H9" s="1">
-        <v>1181.43459915612</v>
+        <v>1417.72151898734</v>
       </c>
       <c r="I9" s="1">
-        <v>1476.79324894515</v>
+        <v>1772.15189873418</v>
       </c>
       <c r="J9" s="1">
-        <v>1772.15189873418</v>
+        <v>2126.58227848101</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2532,52 +2415,52 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="1">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="1">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G10" s="1">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="1">
-        <v>1417.72151898734</v>
+        <v>1476.79324894515</v>
       </c>
       <c r="I10" s="1">
-        <v>1772.15189873418</v>
+        <v>1845.99156118143</v>
       </c>
       <c r="J10" s="1">
-        <v>2126.58227848101</v>
+        <v>2215.18987341772</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2585,13 +2468,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E11" s="1">
         <v>10000</v>
@@ -2612,39 +2495,39 @@
         <v>2215.18987341772</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E12" s="1">
         <v>10000</v>
@@ -2665,251 +2548,251 @@
         <v>2215.18987341772</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E13" s="1">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F13" s="1">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="1">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="H13" s="1">
-        <v>1476.79324894515</v>
+        <v>1417.72151898734</v>
       </c>
       <c r="I13" s="1">
-        <v>1845.99156118143</v>
+        <v>1772.15189873418</v>
       </c>
       <c r="J13" s="1">
-        <v>2215.18987341772</v>
+        <v>2126.58227848101</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="1">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="1">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G14" s="1">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="H14" s="1">
-        <v>1476.79324894515</v>
+        <v>1417.72151898734</v>
       </c>
       <c r="I14" s="1">
-        <v>1845.99156118143</v>
+        <v>1772.15189873418</v>
       </c>
       <c r="J14" s="1">
-        <v>2215.18987341772</v>
+        <v>2126.58227848101</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E15" s="1">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="1">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G15" s="1">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="H15" s="1">
-        <v>1417.72151898734</v>
+        <v>1476.79324894515</v>
       </c>
       <c r="I15" s="1">
-        <v>1772.15189873418</v>
+        <v>1845.99156118143</v>
       </c>
       <c r="J15" s="1">
-        <v>2126.58227848101</v>
+        <v>2215.18987341772</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12500</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1476.79324894515</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1845.99156118143</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2215.18987341772</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9600</v>
-      </c>
-      <c r="F16" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>14400</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1417.72151898734</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1772.15189873418</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2126.58227848101</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>10000</v>
@@ -2930,251 +2813,251 @@
         <v>2215.18987341772</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E18" s="1">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="F18" s="1">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="G18" s="1">
-        <v>15000</v>
+        <v>19200</v>
       </c>
       <c r="H18" s="1">
-        <v>1476.79324894515</v>
+        <v>1890.29535864979</v>
       </c>
       <c r="I18" s="1">
-        <v>1845.99156118143</v>
+        <v>2362.86919831224</v>
       </c>
       <c r="J18" s="1">
-        <v>2215.18987341772</v>
+        <v>2835.44303797468</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E19" s="1">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="F19" s="1">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="G19" s="1">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="H19" s="1">
-        <v>1476.79324894515</v>
+        <v>2126.58227848101</v>
       </c>
       <c r="I19" s="1">
-        <v>1845.99156118143</v>
+        <v>2658.22784810127</v>
       </c>
       <c r="J19" s="1">
-        <v>2215.18987341772</v>
+        <v>3189.87341772152</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E20" s="1">
-        <v>10000</v>
+        <v>13200</v>
       </c>
       <c r="F20" s="1">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="G20" s="1">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="H20" s="1">
-        <v>1476.79324894515</v>
+        <v>1949.3670886076</v>
       </c>
       <c r="I20" s="1">
-        <v>1845.99156118143</v>
+        <v>2436.70886075949</v>
       </c>
       <c r="J20" s="1">
-        <v>2215.18987341772</v>
+        <v>2924.05063291139</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E21" s="1">
-        <v>10000</v>
+        <v>13200</v>
       </c>
       <c r="F21" s="1">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="G21" s="1">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="H21" s="1">
-        <v>1476.79324894515</v>
+        <v>1949.3670886076</v>
       </c>
       <c r="I21" s="1">
-        <v>1845.99156118143</v>
+        <v>2436.70886075949</v>
       </c>
       <c r="J21" s="1">
-        <v>2215.18987341772</v>
+        <v>2924.05063291139</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E22" s="1">
         <v>12800</v>
@@ -3195,40 +3078,38 @@
         <v>2835.44303797468</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>14400</v>
       </c>
@@ -3248,93 +3129,89 @@
         <v>3189.87341772152</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="F24" s="1">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="1">
-        <v>19200</v>
+        <v>21600</v>
       </c>
       <c r="H24" s="1">
-        <v>1890.29535864979</v>
+        <v>2126.58227848101</v>
       </c>
       <c r="I24" s="1">
-        <v>2362.86919831224</v>
+        <v>2658.22784810127</v>
       </c>
       <c r="J24" s="1">
-        <v>2835.44303797468</v>
+        <v>3189.87341772152</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>13200</v>
       </c>
@@ -3354,40 +3231,38 @@
         <v>2924.05063291139</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>13200</v>
       </c>
@@ -3407,1202 +3282,533 @@
         <v>2924.05063291139</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>13200</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="1">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
-        <v>19800</v>
+        <v>24000</v>
       </c>
       <c r="H27" s="1">
-        <v>1949.3670886076</v>
+        <v>2362.86919831224</v>
       </c>
       <c r="I27" s="1">
-        <v>2436.70886075949</v>
+        <v>2953.5864978903</v>
       </c>
       <c r="J27" s="1">
-        <v>2924.05063291139</v>
+        <v>3544.30379746835</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>17600</v>
+        <v>16000</v>
       </c>
       <c r="F28" s="1">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="1">
-        <v>26400</v>
+        <v>24000</v>
       </c>
       <c r="H28" s="1">
-        <v>2599.15611814346</v>
+        <v>2362.86919831224</v>
       </c>
       <c r="I28" s="1">
-        <v>3248.94514767932</v>
+        <v>2953.5864978903</v>
       </c>
       <c r="J28" s="1">
-        <v>3898.73417721519</v>
+        <v>3544.30379746835</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>12800</v>
+        <v>19200</v>
       </c>
       <c r="F29" s="1">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="G29" s="1">
-        <v>19200</v>
+        <v>28800</v>
       </c>
       <c r="H29" s="1">
-        <v>1890.29535864979</v>
+        <v>2835.44303797468</v>
       </c>
       <c r="I29" s="1">
-        <v>2362.86919831224</v>
+        <v>3544.30379746835</v>
       </c>
       <c r="J29" s="1">
-        <v>2835.44303797468</v>
+        <v>4253.16455696203</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>14400</v>
+        <v>20000</v>
       </c>
       <c r="F30" s="1">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="G30" s="1">
-        <v>21600</v>
+        <v>30000</v>
       </c>
       <c r="H30" s="1">
-        <v>2126.58227848101</v>
+        <v>2953.5864978903</v>
       </c>
       <c r="I30" s="1">
-        <v>2658.22784810127</v>
+        <v>3691.98312236287</v>
       </c>
       <c r="J30" s="1">
-        <v>3189.87341772152</v>
+        <v>4430.37974683544</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>14400</v>
+        <v>20000</v>
       </c>
       <c r="F31" s="1">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="G31" s="1">
-        <v>21600</v>
+        <v>30000</v>
       </c>
       <c r="H31" s="1">
-        <v>2126.58227848101</v>
+        <v>2953.5864978903</v>
       </c>
       <c r="I31" s="1">
-        <v>2658.22784810127</v>
+        <v>3691.98312236287</v>
       </c>
       <c r="J31" s="1">
-        <v>3189.87341772152</v>
+        <v>4430.37974683544</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="F32" s="1">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="G32" s="1">
-        <v>19200</v>
+        <v>27000</v>
       </c>
       <c r="H32" s="1">
-        <v>1890.29535864979</v>
+        <v>2658.22784810127</v>
       </c>
       <c r="I32" s="1">
-        <v>2362.86919831224</v>
+        <v>3322.78481012658</v>
       </c>
       <c r="J32" s="1">
-        <v>2835.44303797468</v>
+        <v>3987.3417721519</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>13200</v>
+        <v>19200</v>
       </c>
       <c r="F33" s="1">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="G33" s="1">
-        <v>19800</v>
+        <v>28800</v>
       </c>
       <c r="H33" s="1">
-        <v>1949.3670886076</v>
+        <v>2835.44303797468</v>
       </c>
       <c r="I33" s="1">
-        <v>2436.70886075949</v>
+        <v>3544.30379746835</v>
       </c>
       <c r="J33" s="1">
-        <v>2924.05063291139</v>
+        <v>4253.16455696203</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>283</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>13200</v>
-      </c>
-      <c r="F34" s="1">
-        <v>16500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1949.3670886076</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>2436.70886075949</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>2924.05063291139</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>283</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>13200</v>
+        <v>31416</v>
       </c>
       <c r="F35" s="1">
-        <v>16500</v>
+        <v>39270</v>
       </c>
       <c r="G35" s="1">
-        <v>19800</v>
+        <v>47124</v>
       </c>
       <c r="H35" s="1">
-        <v>1949.3670886076</v>
+        <v>4639.49367088608</v>
       </c>
       <c r="I35" s="1">
-        <v>2436.70886075949</v>
+        <v>5799.36708860759</v>
       </c>
       <c r="J35" s="1">
-        <v>2924.05063291139</v>
+        <v>6959.24050632911</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>13200</v>
+        <v>32000</v>
       </c>
       <c r="F36" s="1">
-        <v>16500</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="1">
-        <v>19800</v>
+        <v>48000</v>
       </c>
       <c r="H36" s="1">
-        <v>1949.3670886076</v>
+        <v>4725.73839662447</v>
       </c>
       <c r="I36" s="1">
-        <v>2436.70886075949</v>
+        <v>5907.17299578059</v>
       </c>
       <c r="J36" s="1">
-        <v>2924.05063291139</v>
+        <v>7088.60759493671</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>13200</v>
-      </c>
-      <c r="F37" s="1">
-        <v>16500</v>
-      </c>
-      <c r="G37" s="1">
-        <v>19800</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1949.3670886076</v>
-      </c>
-      <c r="I37" s="1">
-        <v>2436.70886075949</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2924.05063291139</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F38" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G38" s="1">
-        <v>24000</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2362.86919831224</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2953.5864978903</v>
-      </c>
-      <c r="J38" s="1">
-        <v>3544.30379746835</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F39" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G39" s="1">
-        <v>24000</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2362.86919831224</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2953.5864978903</v>
-      </c>
-      <c r="J39" s="1">
-        <v>3544.30379746835</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>24000</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2362.86919831224</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2953.5864978903</v>
-      </c>
-      <c r="J40" s="1">
-        <v>3544.30379746835</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>14400</v>
-      </c>
-      <c r="F41" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G41" s="1">
-        <v>21600</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2126.58227848101</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2658.22784810127</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3189.87341772152</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>19200</v>
-      </c>
-      <c r="F42" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G42" s="1">
-        <v>28800</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2835.44303797468</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3544.30379746835</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4253.16455696203</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F43" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>30000</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2953.5864978903</v>
-      </c>
-      <c r="I43" s="1">
-        <v>3691.98312236287</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4430.37974683544</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F44" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G44" s="1">
-        <v>30000</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2953.5864978903</v>
-      </c>
-      <c r="I44" s="1">
-        <v>3691.98312236287</v>
-      </c>
-      <c r="J44" s="1">
-        <v>4430.37974683544</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q44" s="1" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <v>18000</v>
-      </c>
-      <c r="F45" s="1">
-        <v>22500</v>
-      </c>
-      <c r="G45" s="1">
-        <v>27000</v>
-      </c>
-      <c r="H45" s="1">
-        <v>2658.22784810127</v>
-      </c>
-      <c r="I45" s="1">
-        <v>3322.78481012658</v>
-      </c>
-      <c r="J45" s="1">
-        <v>3987.3417721519</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>19200</v>
-      </c>
-      <c r="F46" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G46" s="1">
-        <v>28800</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2835.44303797468</v>
-      </c>
-      <c r="I46" s="1">
-        <v>3544.30379746835</v>
-      </c>
-      <c r="J46" s="1">
-        <v>4253.16455696203</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
-        <v>31416</v>
-      </c>
-      <c r="F48" s="1">
-        <v>39270</v>
-      </c>
-      <c r="G48" s="1">
-        <v>47124</v>
-      </c>
-      <c r="H48" s="1">
-        <v>4639.49367088608</v>
-      </c>
-      <c r="I48" s="1">
-        <v>5799.36708860759</v>
-      </c>
-      <c r="J48" s="1">
-        <v>6959.24050632911</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>32000</v>
-      </c>
-      <c r="F49" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G49" s="1">
-        <v>48000</v>
-      </c>
-      <c r="H49" s="1">
-        <v>4725.73839662447</v>
-      </c>
-      <c r="I49" s="1">
-        <v>5907.17299578059</v>
-      </c>
-      <c r="J49" s="1">
-        <v>7088.60759493671</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
